--- a/medicine/Psychotrope/Château_de_Gironville/Château_de_Gironville.xlsx
+++ b/medicine/Psychotrope/Château_de_Gironville/Château_de_Gironville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Gironville</t>
+          <t>Château_de_Gironville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Gironville est une propriété viticole située à Macau en Gironde dans le sud-ouest de la France, à 20 kilomètres au nord de Bordeaux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Gironville</t>
+          <t>Château_de_Gironville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine a été édifié au XVIIIe siècle et au début du XIXe siècle. Il comporte une demeure avec rez-de-chaussée et un étage carré, des bâtiments agricoles, le tout dans un parc arboré de plusieurs dizaines d'hectares.
-Le château a été la propriété de Lodi-Martin Duffour-Dubergier, maire de Bordeaux au XIXe siècle, et a été acheté en 1967 par la famille Allard, également propriétaire du Château Sigognac situé à Saint-Yzans-de-Médoc. Il est possédé par la famille Mulliez de 2004 à 2021[1],[2]. Il est depuis la propriété de Treasury Wine Estates[3].
-Avant l'arrachage du vignoble aux alentours de 1965, le château de Gironville était un cru bourgeois en AOC haut-médoc, produit sur la commune de Macau, située à 20 kilomètres de Bordeaux. Le vignoble est reconstitué en 1987 ; le vin est classé en cru bourgeois à partir de 2003[1].
+Le château a été la propriété de Lodi-Martin Duffour-Dubergier, maire de Bordeaux au XIXe siècle, et a été acheté en 1967 par la famille Allard, également propriétaire du Château Sigognac situé à Saint-Yzans-de-Médoc. Il est possédé par la famille Mulliez de 2004 à 2021,. Il est depuis la propriété de Treasury Wine Estates.
+Avant l'arrachage du vignoble aux alentours de 1965, le château de Gironville était un cru bourgeois en AOC haut-médoc, produit sur la commune de Macau, située à 20 kilomètres de Bordeaux. Le vignoble est reconstitué en 1987 ; le vin est classé en cru bourgeois à partir de 2003.
 </t>
         </is>
       </c>
